--- a/datasets/example_dataset4.xlsx
+++ b/datasets/example_dataset4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -32,82 +32,58 @@
     <t xml:space="preserve">ID1</t>
   </si>
   <si>
-    <t xml:space="preserve">176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257</t>
+    <t xml:space="preserve">133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148</t>
   </si>
   <si>
     <t xml:space="preserve">ID2</t>
   </si>
   <si>
-    <t xml:space="preserve">166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">249</t>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140</t>
   </si>
   <si>
     <t xml:space="preserve">ID3</t>
   </si>
   <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
+    <t xml:space="preserve">130</t>
   </si>
   <si>
     <t xml:space="preserve">ID4</t>
   </si>
   <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253</t>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145</t>
   </si>
   <si>
     <t xml:space="preserve">ID5</t>
   </si>
   <si>
-    <t xml:space="preserve">155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">272</t>
+    <t xml:space="preserve">99</t>
   </si>
   <si>
     <t xml:space="preserve">ID6</t>
   </si>
   <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
+    <t xml:space="preserve">207</t>
   </si>
   <si>
     <t xml:space="preserve">ID7</t>
   </si>
   <si>
-    <t xml:space="preserve">132</t>
+    <t xml:space="preserve">201</t>
   </si>
   <si>
     <t xml:space="preserve">ID8</t>
@@ -116,105 +92,45 @@
     <t xml:space="preserve">ID9</t>
   </si>
   <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID10</t>
   </si>
   <si>
-    <t xml:space="preserve">293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID11</t>
   </si>
   <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID12</t>
   </si>
   <si>
     <t xml:space="preserve">ID13</t>
   </si>
   <si>
-    <t xml:space="preserve">124</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID14</t>
   </si>
   <si>
-    <t xml:space="preserve">164</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID15</t>
   </si>
   <si>
-    <t xml:space="preserve">126</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID16</t>
   </si>
   <si>
-    <t xml:space="preserve">125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID17</t>
   </si>
   <si>
-    <t xml:space="preserve">122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID18</t>
   </si>
   <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID19</t>
   </si>
   <si>
-    <t xml:space="preserve">241</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID20</t>
   </si>
   <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID21</t>
   </si>
   <si>
     <t xml:space="preserve">ID22</t>
   </si>
   <si>
-    <t xml:space="preserve">268</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID23</t>
   </si>
   <si>
@@ -224,30 +140,15 @@
     <t xml:space="preserve">ID25</t>
   </si>
   <si>
-    <t xml:space="preserve">287</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID26</t>
   </si>
   <si>
-    <t xml:space="preserve">150</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID27</t>
   </si>
   <si>
     <t xml:space="preserve">ID28</t>
   </si>
   <si>
-    <t xml:space="preserve">153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID29</t>
   </si>
   <si>
@@ -260,93 +161,48 @@
     <t xml:space="preserve">ID32</t>
   </si>
   <si>
-    <t xml:space="preserve">115</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID33</t>
   </si>
   <si>
-    <t xml:space="preserve">119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">297</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID34</t>
   </si>
   <si>
     <t xml:space="preserve">ID35</t>
   </si>
   <si>
-    <t xml:space="preserve">182</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID36</t>
   </si>
   <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">267</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID37</t>
   </si>
   <si>
     <t xml:space="preserve">ID38</t>
   </si>
   <si>
-    <t xml:space="preserve">169</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID39</t>
   </si>
   <si>
-    <t xml:space="preserve">175</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID40</t>
   </si>
   <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID41</t>
   </si>
   <si>
-    <t xml:space="preserve">172</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID42</t>
   </si>
   <si>
-    <t xml:space="preserve">156</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID43</t>
   </si>
   <si>
-    <t xml:space="preserve">301</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID44</t>
   </si>
   <si>
-    <t xml:space="preserve">147</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID45</t>
   </si>
   <si>
     <t xml:space="preserve">ID46</t>
   </si>
   <si>
-    <t xml:space="preserve">159</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID47</t>
   </si>
   <si>
@@ -356,12 +212,6 @@
     <t xml:space="preserve">ID49</t>
   </si>
   <si>
-    <t xml:space="preserve">173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID50</t>
   </si>
   <si>
@@ -371,15 +221,9 @@
     <t xml:space="preserve">ID52</t>
   </si>
   <si>
-    <t xml:space="preserve">308</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID53</t>
   </si>
   <si>
-    <t xml:space="preserve">103</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID54</t>
   </si>
   <si>
@@ -395,24 +239,15 @@
     <t xml:space="preserve">ID58</t>
   </si>
   <si>
-    <t xml:space="preserve">290</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID59</t>
   </si>
   <si>
-    <t xml:space="preserve">281</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID60</t>
   </si>
   <si>
     <t xml:space="preserve">ID61</t>
   </si>
   <si>
-    <t xml:space="preserve">181</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID62</t>
   </si>
   <si>
@@ -437,33 +272,21 @@
     <t xml:space="preserve">ID69</t>
   </si>
   <si>
-    <t xml:space="preserve">247</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID70</t>
   </si>
   <si>
     <t xml:space="preserve">ID71</t>
   </si>
   <si>
-    <t xml:space="preserve">162</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID72</t>
   </si>
   <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID73</t>
   </si>
   <si>
     <t xml:space="preserve">ID74</t>
   </si>
   <si>
-    <t xml:space="preserve">288</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID75</t>
   </si>
   <si>
@@ -482,9 +305,6 @@
     <t xml:space="preserve">ID80</t>
   </si>
   <si>
-    <t xml:space="preserve">178</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID81</t>
   </si>
   <si>
@@ -509,9 +329,6 @@
     <t xml:space="preserve">ID88</t>
   </si>
   <si>
-    <t xml:space="preserve">117</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID89</t>
   </si>
   <si>
@@ -533,9 +350,6 @@
     <t xml:space="preserve">ID95</t>
   </si>
   <si>
-    <t xml:space="preserve">263</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID96</t>
   </si>
   <si>
@@ -548,13 +362,7 @@
     <t xml:space="preserve">ID99</t>
   </si>
   <si>
-    <t xml:space="preserve">265</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104</t>
   </si>
 </sst>
 </file>
@@ -925,109 +733,109 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
@@ -1037,101 +845,101 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10"/>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1142,102 +950,102 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1245,91 +1053,91 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1337,39 +1145,39 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1380,76 +1188,76 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1457,143 +1265,143 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -1602,91 +1410,91 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C48"/>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C52"/>
       <c r="D52" t="s">
@@ -1698,72 +1506,72 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C55"/>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -1771,54 +1579,54 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58"/>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="C59"/>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -1826,246 +1634,246 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -2073,13 +1881,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -2090,131 +1898,131 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B82" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -2222,146 +2030,146 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87"/>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -2372,27 +2180,27 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -2400,43 +2208,43 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B99"/>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B100"/>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -2447,13 +2255,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -2464,134 +2272,134 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
         <v>19</v>
       </c>
-      <c r="C105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" t="s">
-        <v>24</v>
-      </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B106"/>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="B109"/>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -2599,131 +2407,131 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C112"/>
       <c r="D112" t="s">
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B118" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -2731,72 +2539,72 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -2804,136 +2612,136 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D128"/>
       <c r="E128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="B131"/>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E131"/>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B132" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -2941,30 +2749,30 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B134" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
@@ -2975,57 +2783,57 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="C136"/>
       <c r="D136" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C139"/>
       <c r="D139" t="s">
@@ -3037,60 +2845,60 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140"/>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
       <c r="E141" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="B142" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C142"/>
       <c r="D142" t="s">
         <v>8</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
@@ -3101,45 +2909,45 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C144"/>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D146" t="s">
         <v>8</v>
@@ -3150,39 +2958,39 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D149" t="s">
         <v>8</v>
@@ -3193,11 +3001,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="B150"/>
       <c r="C150" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="D150"/>
       <c r="E150"/>

--- a/datasets/example_dataset4.xlsx
+++ b/datasets/example_dataset4.xlsx
@@ -1,376 +1,383 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Library/CloudStorage/GoogleDrive-christian.tsoungui@aims-cameroon.org/.shortcut-targets-by-id/1Ulru-DjbFRaMVB7Vj9tJ4NfyzPDkhzOr/Maths against Malaria/Christian/Models/MultiAllelicBiLociModel/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975CD0A6-EBA0-264E-81D8-9CC3CC1E8D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID100</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="117">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>ID1</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>ID7</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>ID8</t>
+  </si>
+  <si>
+    <t>ID9</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>ID11</t>
+  </si>
+  <si>
+    <t>ID12</t>
+  </si>
+  <si>
+    <t>ID13</t>
+  </si>
+  <si>
+    <t>ID14</t>
+  </si>
+  <si>
+    <t>ID15</t>
+  </si>
+  <si>
+    <t>ID16</t>
+  </si>
+  <si>
+    <t>ID17</t>
+  </si>
+  <si>
+    <t>ID18</t>
+  </si>
+  <si>
+    <t>ID19</t>
+  </si>
+  <si>
+    <t>ID20</t>
+  </si>
+  <si>
+    <t>ID21</t>
+  </si>
+  <si>
+    <t>ID22</t>
+  </si>
+  <si>
+    <t>ID23</t>
+  </si>
+  <si>
+    <t>ID24</t>
+  </si>
+  <si>
+    <t>ID25</t>
+  </si>
+  <si>
+    <t>ID26</t>
+  </si>
+  <si>
+    <t>ID27</t>
+  </si>
+  <si>
+    <t>ID28</t>
+  </si>
+  <si>
+    <t>ID29</t>
+  </si>
+  <si>
+    <t>ID30</t>
+  </si>
+  <si>
+    <t>ID31</t>
+  </si>
+  <si>
+    <t>ID32</t>
+  </si>
+  <si>
+    <t>ID33</t>
+  </si>
+  <si>
+    <t>ID34</t>
+  </si>
+  <si>
+    <t>ID35</t>
+  </si>
+  <si>
+    <t>ID36</t>
+  </si>
+  <si>
+    <t>ID37</t>
+  </si>
+  <si>
+    <t>ID38</t>
+  </si>
+  <si>
+    <t>ID39</t>
+  </si>
+  <si>
+    <t>ID40</t>
+  </si>
+  <si>
+    <t>ID41</t>
+  </si>
+  <si>
+    <t>ID42</t>
+  </si>
+  <si>
+    <t>ID43</t>
+  </si>
+  <si>
+    <t>ID44</t>
+  </si>
+  <si>
+    <t>ID45</t>
+  </si>
+  <si>
+    <t>ID46</t>
+  </si>
+  <si>
+    <t>ID47</t>
+  </si>
+  <si>
+    <t>ID48</t>
+  </si>
+  <si>
+    <t>ID49</t>
+  </si>
+  <si>
+    <t>ID50</t>
+  </si>
+  <si>
+    <t>ID51</t>
+  </si>
+  <si>
+    <t>ID52</t>
+  </si>
+  <si>
+    <t>ID53</t>
+  </si>
+  <si>
+    <t>ID54</t>
+  </si>
+  <si>
+    <t>ID55</t>
+  </si>
+  <si>
+    <t>ID56</t>
+  </si>
+  <si>
+    <t>ID57</t>
+  </si>
+  <si>
+    <t>ID58</t>
+  </si>
+  <si>
+    <t>ID59</t>
+  </si>
+  <si>
+    <t>ID60</t>
+  </si>
+  <si>
+    <t>ID61</t>
+  </si>
+  <si>
+    <t>ID62</t>
+  </si>
+  <si>
+    <t>ID63</t>
+  </si>
+  <si>
+    <t>ID64</t>
+  </si>
+  <si>
+    <t>ID65</t>
+  </si>
+  <si>
+    <t>ID66</t>
+  </si>
+  <si>
+    <t>ID67</t>
+  </si>
+  <si>
+    <t>ID68</t>
+  </si>
+  <si>
+    <t>ID69</t>
+  </si>
+  <si>
+    <t>ID70</t>
+  </si>
+  <si>
+    <t>ID71</t>
+  </si>
+  <si>
+    <t>ID72</t>
+  </si>
+  <si>
+    <t>ID73</t>
+  </si>
+  <si>
+    <t>ID74</t>
+  </si>
+  <si>
+    <t>ID75</t>
+  </si>
+  <si>
+    <t>ID76</t>
+  </si>
+  <si>
+    <t>ID77</t>
+  </si>
+  <si>
+    <t>ID78</t>
+  </si>
+  <si>
+    <t>ID79</t>
+  </si>
+  <si>
+    <t>ID80</t>
+  </si>
+  <si>
+    <t>ID81</t>
+  </si>
+  <si>
+    <t>ID82</t>
+  </si>
+  <si>
+    <t>ID83</t>
+  </si>
+  <si>
+    <t>ID84</t>
+  </si>
+  <si>
+    <t>ID85</t>
+  </si>
+  <si>
+    <t>ID86</t>
+  </si>
+  <si>
+    <t>ID87</t>
+  </si>
+  <si>
+    <t>ID88</t>
+  </si>
+  <si>
+    <t>ID89</t>
+  </si>
+  <si>
+    <t>ID90</t>
+  </si>
+  <si>
+    <t>ID91</t>
+  </si>
+  <si>
+    <t>ID92</t>
+  </si>
+  <si>
+    <t>ID93</t>
+  </si>
+  <si>
+    <t>ID94</t>
+  </si>
+  <si>
+    <t>ID95</t>
+  </si>
+  <si>
+    <t>ID96</t>
+  </si>
+  <si>
+    <t>ID97</t>
+  </si>
+  <si>
+    <t>ID98</t>
+  </si>
+  <si>
+    <t>ID99</t>
+  </si>
+  <si>
+    <t>ID100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -406,6 +413,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -687,14 +703,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -728,7 +746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -745,7 +763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -762,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -779,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -796,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -813,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -830,24 +848,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9"/>
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -858,25 +873,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11"/>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -884,11 +895,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13"/>
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -899,11 +909,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14"/>
       <c r="C14" t="s">
         <v>7</v>
       </c>
@@ -914,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -931,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -948,12 +957,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
@@ -961,7 +968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -978,18 +985,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19"/>
       <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1040,18 +1044,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1085,24 +1086,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26"/>
       <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="D26"/>
       <c r="E26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27"/>
       <c r="C27" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1130,12 +1128,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29"/>
-      <c r="C29"/>
       <c r="D29" t="s">
         <v>11</v>
       </c>
@@ -1143,14 +1139,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C30"/>
       <c r="D30" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1175,18 +1170,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
       <c r="E32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1233,9 +1225,8 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1252,18 +1243,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1280,7 +1268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1297,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1331,7 +1319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1348,7 +1336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1365,18 +1353,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44"/>
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1406,9 +1391,8 @@
       <c r="D46" t="s">
         <v>8</v>
       </c>
-      <c r="E46"/>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1425,20 +1409,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48"/>
       <c r="D48" t="s">
         <v>11</v>
       </c>
-      <c r="E48"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1455,7 +1437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1472,7 +1454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1489,14 +1471,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
       </c>
-      <c r="C52"/>
       <c r="D52" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1521,27 +1502,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C54"/>
-      <c r="D54"/>
       <c r="E54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
-      <c r="C55"/>
       <c r="D55" t="s">
         <v>16</v>
       </c>
@@ -1549,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1566,25 +1544,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58"/>
       <c r="D58" t="s">
         <v>11</v>
       </c>
@@ -1592,14 +1566,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
-      <c r="C59"/>
       <c r="D59" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1624,12 +1597,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B61"/>
-      <c r="C61"/>
       <c r="D61" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -1654,11 +1625,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63"/>
       <c r="C63" t="s">
         <v>7</v>
       </c>
@@ -1669,11 +1639,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64"/>
       <c r="C64" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +1653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1701,7 +1670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1718,7 +1687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1735,7 +1704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -1748,20 +1717,16 @@
       <c r="D68" t="s">
         <v>11</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>63</v>
       </c>
-      <c r="B69"/>
       <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D69"/>
-      <c r="E69"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -1778,18 +1743,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>64</v>
       </c>
-      <c r="B71"/>
       <c r="C71" t="s">
         <v>21</v>
       </c>
-      <c r="D71"/>
-      <c r="E71"/>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -1806,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -1816,10 +1778,8 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73"/>
-      <c r="E73"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -1836,7 +1796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -1849,9 +1809,8 @@
       <c r="D75" t="s">
         <v>11</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>68</v>
       </c>
@@ -1868,18 +1827,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>68</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -1896,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -1913,20 +1869,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>69</v>
       </c>
-      <c r="B80"/>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
       </c>
-      <c r="E80"/>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -1943,7 +1897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -1960,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -1977,7 +1931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -1994,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +1965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -2028,20 +1982,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>75</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
-      <c r="C87"/>
       <c r="D87" t="s">
         <v>16</v>
       </c>
-      <c r="E87"/>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -2058,18 +2010,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>76</v>
       </c>
-      <c r="B89"/>
       <c r="C89" t="s">
         <v>23</v>
       </c>
-      <c r="D89"/>
-      <c r="E89"/>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -2086,7 +2035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -2096,10 +2045,8 @@
       <c r="C91" t="s">
         <v>23</v>
       </c>
-      <c r="D91"/>
-      <c r="E91"/>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -2116,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -2133,7 +2080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -2150,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -2167,18 +2114,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>80</v>
       </c>
-      <c r="B96"/>
-      <c r="C96"/>
       <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>81</v>
       </c>
@@ -2195,22 +2139,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>81</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
       </c>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>82</v>
       </c>
-      <c r="B99"/>
       <c r="C99" t="s">
         <v>23</v>
       </c>
@@ -2221,11 +2161,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>82</v>
       </c>
-      <c r="B100"/>
       <c r="C100" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>83</v>
       </c>
@@ -2253,7 +2192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>84</v>
       </c>
@@ -2270,7 +2209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>84</v>
       </c>
@@ -2287,7 +2226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>85</v>
       </c>
@@ -2304,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>85</v>
       </c>
@@ -2321,18 +2260,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>85</v>
       </c>
-      <c r="B106"/>
       <c r="C106" t="s">
         <v>7</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -2349,7 +2285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>87</v>
       </c>
@@ -2366,18 +2302,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>87</v>
       </c>
-      <c r="B109"/>
       <c r="C109" t="s">
         <v>23</v>
       </c>
-      <c r="D109"/>
-      <c r="E109"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -2394,25 +2327,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>88</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
       </c>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>89</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="C112"/>
       <c r="D112" t="s">
         <v>8</v>
       </c>
@@ -2420,7 +2349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>90</v>
       </c>
@@ -2437,7 +2366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>91</v>
       </c>
@@ -2454,7 +2383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -2471,7 +2400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>93</v>
       </c>
@@ -2484,9 +2413,8 @@
       <c r="D116" t="s">
         <v>16</v>
       </c>
-      <c r="E116"/>
-    </row>
-    <row r="117">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>94</v>
       </c>
@@ -2503,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>95</v>
       </c>
@@ -2520,7 +2448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -2537,7 +2465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -2554,18 +2482,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>97</v>
       </c>
-      <c r="B121"/>
-      <c r="C121"/>
       <c r="D121" t="s">
         <v>11</v>
       </c>
-      <c r="E121"/>
-    </row>
-    <row r="122">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -2582,7 +2507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>99</v>
       </c>
@@ -2599,18 +2524,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>99</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-    </row>
-    <row r="125">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>100</v>
       </c>
@@ -2627,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>101</v>
       </c>
@@ -2637,12 +2559,11 @@
       <c r="C126" t="s">
         <v>7</v>
       </c>
-      <c r="D126"/>
       <c r="E126" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>102</v>
       </c>
@@ -2659,7 +2580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>102</v>
       </c>
@@ -2669,10 +2590,8 @@
       <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
-    </row>
-    <row r="129">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -2689,7 +2608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -2706,20 +2625,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>104</v>
       </c>
-      <c r="B131"/>
       <c r="C131" t="s">
         <v>23</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
       </c>
-      <c r="E131"/>
-    </row>
-    <row r="132">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -2736,18 +2653,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>105</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-    </row>
-    <row r="134">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>106</v>
       </c>
@@ -2764,7 +2678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -2781,20 +2695,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>107</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
-      <c r="C136"/>
       <c r="D136" t="s">
         <v>16</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -2811,7 +2723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>109</v>
       </c>
@@ -2828,14 +2740,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>109</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
-      <c r="C139"/>
       <c r="D139" t="s">
         <v>8</v>
       </c>
@@ -2843,14 +2754,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>110</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
-      <c r="C140"/>
       <c r="D140" t="s">
         <v>16</v>
       </c>
@@ -2858,7 +2768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>111</v>
       </c>
@@ -2875,14 +2785,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>112</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
-      <c r="C142"/>
       <c r="D142" t="s">
         <v>8</v>
       </c>
@@ -2890,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>113</v>
       </c>
@@ -2907,14 +2816,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>113</v>
       </c>
       <c r="B144" t="s">
         <v>14</v>
       </c>
-      <c r="C144"/>
       <c r="D144" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +2830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>114</v>
       </c>
@@ -2939,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>115</v>
       </c>
@@ -2956,33 +2864,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>115</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="C147"/>
-      <c r="D147"/>
       <c r="E147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>115</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
-      <c r="C148"/>
-      <c r="D148"/>
       <c r="E148" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>116</v>
       </c>
@@ -2999,19 +2903,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>116</v>
       </c>
-      <c r="B150"/>
       <c r="C150" t="s">
         <v>7</v>
       </c>
-      <c r="D150"/>
-      <c r="E150"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>